--- a/Input/ADNT_Local/rateSheet1.xlsx
+++ b/Input/ADNT_Local/rateSheet1.xlsx
@@ -241,7 +241,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="10" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="15" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -249,19 +249,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="6" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="9" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="13" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="13" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="9" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="9" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="6" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -278,12 +278,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -293,26 +293,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="83.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="61.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Input/ADNT_Local/rateSheet1.xlsx
+++ b/Input/ADNT_Local/rateSheet1.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">currency</t>
   </si>
   <si>
-    <t xml:space="preserve">maternity</t>
+    <t xml:space="preserve">term2</t>
   </si>
   <si>
     <t xml:space="preserve">Elite</t>
@@ -219,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,19 +249,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="9" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="13" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="15" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="13" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="13" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="9" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -299,15 +295,15 @@
   </sheetPr>
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="83.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="61.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.36"/>
   </cols>
@@ -364,7 +360,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>9951</v>
+        <v>8100</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>14</v>
@@ -396,7 +392,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>9951</v>
+        <v>8100</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>14</v>
@@ -428,7 +424,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>5458</v>
+        <v>5420</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
@@ -460,7 +456,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>6710</v>
+        <v>6660</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
@@ -492,7 +488,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>7168</v>
+        <v>7115</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
@@ -524,7 +520,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>8347</v>
+        <v>8283</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -556,7 +552,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>9964</v>
+        <v>9885</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -588,7 +584,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11429</v>
+        <v>11337</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>14</v>
@@ -620,7 +616,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14481</v>
+        <v>14363</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -652,7 +648,7 @@
         <v>54</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18895</v>
+        <v>18738</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
@@ -684,7 +680,7 @@
         <v>59</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25174</v>
+        <v>24962</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
@@ -716,7 +712,7 @@
         <v>64</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30626</v>
+        <v>30366</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -748,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>8322</v>
+        <v>6807</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>14</v>
@@ -780,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>8322</v>
+        <v>6807</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>14</v>
@@ -812,7 +808,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>5635</v>
+        <v>5595</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>14</v>
@@ -847,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>7522</v>
+        <v>7466</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>14</v>
@@ -882,7 +878,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>8987</v>
+        <v>8918</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>14</v>
@@ -917,7 +913,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>10445</v>
+        <v>10362</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>14</v>
@@ -952,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>12667</v>
+        <v>12566</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>14</v>
@@ -987,7 +983,7 @@
         <v>44</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>15805</v>
+        <v>15675</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>14</v>
@@ -1022,7 +1018,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>19394</v>
+        <v>19232</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
@@ -1054,7 +1050,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>25065</v>
+        <v>24854</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>14</v>
@@ -1086,7 +1082,7 @@
         <v>59</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>30325</v>
+        <v>30068</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
@@ -1118,7 +1114,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>35732</v>
+        <v>35427</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>14</v>
@@ -1150,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>5786</v>
+        <v>4754</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>14</v>
@@ -1182,7 +1178,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>5786</v>
+        <v>4754</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>14</v>
@@ -1214,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>3103</v>
+        <v>3136</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>14</v>
@@ -1246,7 +1242,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>3850</v>
+        <v>3885</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>14</v>
@@ -1278,7 +1274,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>4124</v>
+        <v>4160</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>14</v>
@@ -1310,7 +1306,7 @@
         <v>34</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>4828</v>
+        <v>4865</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>14</v>
@@ -1342,7 +1338,7 @@
         <v>39</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>5794</v>
+        <v>5832</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>14</v>
@@ -1374,7 +1370,7 @@
         <v>44</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>6669</v>
+        <v>6709</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>14</v>
@@ -1406,7 +1402,7 @@
         <v>49</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>8492</v>
+        <v>8537</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>14</v>
@@ -1438,7 +1434,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>11128</v>
+        <v>11179</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>14</v>
@@ -1470,7 +1466,7 @@
         <v>59</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>14879</v>
+        <v>14938</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>14</v>
@@ -1502,7 +1498,7 @@
         <v>64</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>18136</v>
+        <v>18202</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>14</v>
@@ -1534,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>5022</v>
+        <v>4141</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>14</v>
@@ -1566,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>5022</v>
+        <v>4141</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>14</v>
@@ -1598,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>3340</v>
+        <v>3374</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>14</v>
@@ -1633,7 +1629,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>4521</v>
+        <v>4557</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>14</v>
@@ -1668,7 +1664,7 @@
         <v>29</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>5438</v>
+        <v>5476</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>14</v>
@@ -1703,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>6351</v>
+        <v>6391</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>14</v>
@@ -1738,7 +1734,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>7742</v>
+        <v>7784</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>14</v>
@@ -1773,7 +1769,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>9706</v>
+        <v>9753</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>14</v>
@@ -1808,7 +1804,7 @@
         <v>49</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>11952</v>
+        <v>12004</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>14</v>
@@ -1840,7 +1836,7 @@
         <v>54</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>15502</v>
+        <v>15562</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>14</v>
@@ -1872,7 +1868,7 @@
         <v>59</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>18794</v>
+        <v>18861</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>14</v>
@@ -1904,7 +1900,7 @@
         <v>64</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>22178</v>
+        <v>22253</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>14</v>
@@ -1936,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="7" t="n">
-        <v>4836</v>
+        <v>3884</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>14</v>
@@ -1968,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>4836</v>
+        <v>3884</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>14</v>
@@ -2000,7 +1996,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>2407</v>
+        <v>2416</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>14</v>
@@ -2032,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>3083</v>
+        <v>3097</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>14</v>
@@ -2064,7 +2060,7 @@
         <v>29</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>3331</v>
+        <v>3345</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>14</v>
@@ -2096,7 +2092,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>3969</v>
+        <v>3986</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>14</v>
@@ -2128,7 +2124,7 @@
         <v>39</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>4842</v>
+        <v>4863</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>14</v>
@@ -2160,7 +2156,7 @@
         <v>44</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>5634</v>
+        <v>5658</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>14</v>
@@ -2192,7 +2188,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>7285</v>
+        <v>7316</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>14</v>
@@ -2224,7 +2220,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>9671</v>
+        <v>9713</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>14</v>
@@ -2256,7 +2252,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="7" t="n">
-        <v>13066</v>
+        <v>13123</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>14</v>
@@ -2288,7 +2284,7 @@
         <v>64</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>16014</v>
+        <v>16082</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>14</v>
@@ -2320,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>3933</v>
+        <v>3161</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>14</v>
@@ -2352,7 +2348,7 @@
         <v>9</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>3933</v>
+        <v>3161</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>14</v>
@@ -2384,7 +2380,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>2488</v>
+        <v>2499</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>14</v>
@@ -2419,7 +2415,7 @@
         <v>24</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>3503</v>
+        <v>3518</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>14</v>
@@ -2454,7 +2450,7 @@
         <v>29</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>4291</v>
+        <v>4309</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>14</v>
@@ -2489,7 +2485,7 @@
         <v>34</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>5075</v>
+        <v>5097</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>14</v>
@@ -2524,7 +2520,7 @@
         <v>39</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>6270</v>
+        <v>6296</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>14</v>
@@ -2559,7 +2555,7 @@
         <v>44</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>7957</v>
+        <v>7992</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>14</v>
@@ -2594,7 +2590,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>9887</v>
+        <v>9929</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>14</v>
@@ -2626,7 +2622,7 @@
         <v>54</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>12937</v>
+        <v>12993</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>14</v>
@@ -2658,7 +2654,7 @@
         <v>59</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>15765</v>
+        <v>15832</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>14</v>
@@ -2690,7 +2686,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>18673</v>
+        <v>18753</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>14</v>
@@ -2722,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>8887</v>
+        <v>7312</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>25</v>
@@ -2737,7 +2733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
@@ -2754,7 +2750,7 @@
         <v>9</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>8861</v>
+        <v>7312</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>25</v>
@@ -2769,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>11</v>
       </c>
@@ -2786,7 +2782,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>4903</v>
+        <v>4930</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>25</v>
@@ -2801,7 +2797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>11</v>
       </c>
@@ -2818,7 +2814,7 @@
         <v>24</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>6005</v>
+        <v>6032</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>25</v>
@@ -2833,7 +2829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>6409</v>
+        <v>6436</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>25</v>
@@ -2865,7 +2861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2878,7 @@
         <v>34</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>7448</v>
+        <v>7475</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>25</v>
@@ -2897,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>8872</v>
+        <v>8899</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>25</v>
@@ -2929,7 +2925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
@@ -2946,7 +2942,7 @@
         <v>44</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>10163</v>
+        <v>10190</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>25</v>
@@ -2961,7 +2957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>49</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>12853</v>
+        <v>12879</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>25</v>
@@ -2993,7 +2989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -3010,7 +3006,7 @@
         <v>54</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>16741</v>
+        <v>16768</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>25</v>
@@ -3025,7 +3021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>11</v>
       </c>
@@ -3042,7 +3038,7 @@
         <v>59</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>22274</v>
+        <v>22300</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>25</v>
@@ -3057,7 +3053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>11</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>27077</v>
+        <v>27104</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>25</v>
@@ -3089,7 +3085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>7426</v>
+        <v>6163</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>25</v>
@@ -3121,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>7426</v>
+        <v>6163</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>25</v>
@@ -3153,7 +3149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -3170,7 +3166,7 @@
         <v>19</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>5059</v>
+        <v>5086</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>25</v>
@@ -3188,7 +3184,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>11</v>
       </c>
@@ -3205,7 +3201,7 @@
         <v>24</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>6721</v>
+        <v>6748</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>25</v>
@@ -3223,7 +3219,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>29</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>8012</v>
+        <v>8039</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>25</v>
@@ -3258,7 +3254,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
@@ -3275,7 +3271,7 @@
         <v>34</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>9297</v>
+        <v>9323</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>25</v>
@@ -3293,7 +3289,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>11254</v>
+        <v>11282</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>25</v>
@@ -3328,7 +3324,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +3341,7 @@
         <v>44</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>14019</v>
+        <v>14046</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>25</v>
@@ -3363,7 +3359,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>11</v>
       </c>
@@ -3380,7 +3376,7 @@
         <v>49</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>17181</v>
+        <v>17207</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>25</v>
@@ -3395,7 +3391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
@@ -3412,7 +3408,7 @@
         <v>54</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>22178</v>
+        <v>22204</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>25</v>
@@ -3427,7 +3423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>11</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>59</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>26812</v>
+        <v>26839</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>25</v>
@@ -3459,7 +3455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>11</v>
       </c>
@@ -3476,7 +3472,7 @@
         <v>64</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>31576</v>
+        <v>31603</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>25</v>
@@ -3491,7 +3487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>19</v>
       </c>
@@ -3508,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>5151</v>
+        <v>4209</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>25</v>
@@ -3523,7 +3519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>9</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>5151</v>
+        <v>4209</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>25</v>
@@ -3555,7 +3551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>19</v>
       </c>
@@ -3587,7 +3583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>19</v>
       </c>
@@ -3619,7 +3615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>19</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>29</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>25</v>
@@ -3651,7 +3647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
@@ -3683,7 +3679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>19</v>
       </c>
@@ -3715,7 +3711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>19</v>
       </c>
@@ -3747,7 +3743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>19</v>
       </c>
@@ -3779,7 +3775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>19</v>
       </c>
@@ -3796,7 +3792,7 @@
         <v>54</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>9858</v>
+        <v>9857</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>25</v>
@@ -3811,7 +3807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>19</v>
       </c>
@@ -3828,7 +3824,7 @@
         <v>59</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>13162</v>
+        <v>13163</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>25</v>
@@ -3843,7 +3839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>19</v>
       </c>
@@ -3875,7 +3871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -3892,7 +3888,7 @@
         <v>5</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>4478</v>
+        <v>3671</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>25</v>
@@ -3907,7 +3903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>19</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>9</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>4478</v>
+        <v>3671</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>25</v>
@@ -3939,7 +3935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>19</v>
       </c>
@@ -3974,7 +3970,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>19</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>19</v>
       </c>
@@ -4061,7 +4057,7 @@
         <v>34</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>25</v>
@@ -4079,7 +4075,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>19</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v>39</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>6874</v>
+        <v>6873</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>25</v>
@@ -4114,7 +4110,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
@@ -4149,7 +4145,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>19</v>
       </c>
@@ -4181,7 +4177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>19</v>
       </c>
@@ -4213,7 +4209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>19</v>
       </c>
@@ -4245,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>19</v>
       </c>
@@ -4277,7 +4273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>22</v>
       </c>
@@ -4294,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>4151</v>
+        <v>3320</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>25</v>
@@ -4309,7 +4305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>22</v>
       </c>
@@ -4326,7 +4322,7 @@
         <v>9</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>4151</v>
+        <v>3320</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>25</v>
@@ -4341,7 +4337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>22</v>
       </c>
@@ -4358,7 +4354,7 @@
         <v>19</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>25</v>
@@ -4373,7 +4369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>22</v>
       </c>
@@ -4390,7 +4386,7 @@
         <v>24</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>25</v>
@@ -4405,7 +4401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>22</v>
       </c>
@@ -4437,7 +4433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>22</v>
       </c>
@@ -4454,7 +4450,7 @@
         <v>34</v>
       </c>
       <c r="F127" s="3" t="n">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>25</v>
@@ -4469,7 +4465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>22</v>
       </c>
@@ -4501,7 +4497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>22</v>
       </c>
@@ -4533,7 +4529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>22</v>
       </c>
@@ -4565,7 +4561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>22</v>
       </c>
@@ -4597,7 +4593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -4629,7 +4625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>22</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>64</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>13746</v>
+        <v>13745</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>25</v>
@@ -4661,7 +4657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>22</v>
       </c>
@@ -4677,8 +4673,8 @@
       <c r="E134" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F134" s="9" t="n">
-        <v>3376</v>
+      <c r="F134" s="5" t="n">
+        <v>2701</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>25</v>
@@ -4693,7 +4689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>22</v>
       </c>
@@ -4709,8 +4705,8 @@
       <c r="E135" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F135" s="9" t="n">
-        <v>3376</v>
+      <c r="F135" s="5" t="n">
+        <v>2701</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>25</v>
@@ -4725,7 +4721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>22</v>
       </c>
@@ -4741,7 +4737,7 @@
       <c r="E136" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F136" s="9" t="n">
+      <c r="F136" s="5" t="n">
         <v>2136</v>
       </c>
       <c r="G136" s="4" t="s">
@@ -4760,7 +4756,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>22</v>
       </c>
@@ -4776,7 +4772,7 @@
       <c r="E137" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F137" s="9" t="n">
+      <c r="F137" s="5" t="n">
         <v>3007</v>
       </c>
       <c r="G137" s="4" t="s">
@@ -4795,7 +4791,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>22</v>
       </c>
@@ -4811,7 +4807,7 @@
       <c r="E138" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F138" s="9" t="n">
+      <c r="F138" s="5" t="n">
         <v>3683</v>
       </c>
       <c r="G138" s="4" t="s">
@@ -4830,7 +4826,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>22</v>
       </c>
@@ -4846,7 +4842,7 @@
       <c r="E139" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F139" s="9" t="n">
+      <c r="F139" s="5" t="n">
         <v>4356</v>
       </c>
       <c r="G139" s="4" t="s">
@@ -4865,7 +4861,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>22</v>
       </c>
@@ -4881,8 +4877,8 @@
       <c r="E140" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F140" s="9" t="n">
-        <v>5382</v>
+      <c r="F140" s="5" t="n">
+        <v>5381</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>25</v>
@@ -4900,7 +4896,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>22</v>
       </c>
@@ -4916,8 +4912,8 @@
       <c r="E141" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F141" s="9" t="n">
-        <v>6830</v>
+      <c r="F141" s="5" t="n">
+        <v>6831</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>25</v>
@@ -4935,7 +4931,7 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>22</v>
       </c>
@@ -4951,7 +4947,7 @@
       <c r="E142" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="F142" s="9" t="n">
+      <c r="F142" s="5" t="n">
         <v>8487</v>
       </c>
       <c r="G142" s="4" t="s">
@@ -4967,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>22</v>
       </c>
@@ -4983,7 +4979,7 @@
       <c r="E143" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="F143" s="10" t="n">
+      <c r="F143" s="9" t="n">
         <v>11105</v>
       </c>
       <c r="G143" s="4" t="s">
@@ -4999,7 +4995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>22</v>
       </c>
@@ -5015,7 +5011,7 @@
       <c r="E144" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F144" s="10" t="n">
+      <c r="F144" s="9" t="n">
         <v>13532</v>
       </c>
       <c r="G144" s="4" t="s">
@@ -5031,7 +5027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>22</v>
       </c>
@@ -5047,7 +5043,7 @@
       <c r="E145" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="F145" s="10" t="n">
+      <c r="F145" s="9" t="n">
         <v>16028</v>
       </c>
       <c r="G145" s="4" t="s">
@@ -5063,7 +5059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>26</v>
       </c>
@@ -5080,7 +5076,7 @@
         <v>5</v>
       </c>
       <c r="F146" s="3" t="n">
-        <v>2290</v>
+        <v>1832</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>25</v>
@@ -5095,7 +5091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
@@ -5112,7 +5108,7 @@
         <v>9</v>
       </c>
       <c r="F147" s="3" t="n">
-        <v>2290</v>
+        <v>1832</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>25</v>
@@ -5127,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>26</v>
       </c>
@@ -5159,7 +5155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>26</v>
       </c>
@@ -5191,7 +5187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>26</v>
       </c>
@@ -5223,7 +5219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>26</v>
       </c>
@@ -5240,7 +5236,7 @@
         <v>34</v>
       </c>
       <c r="F151" s="3" t="n">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>25</v>
@@ -5255,7 +5251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>26</v>
       </c>
@@ -5287,7 +5283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>26</v>
       </c>
@@ -5319,7 +5315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>26</v>
       </c>
@@ -5351,7 +5347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>26</v>
       </c>
@@ -5383,7 +5379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
         <v>26</v>
       </c>
@@ -5400,7 +5396,7 @@
         <v>59</v>
       </c>
       <c r="F156" s="3" t="n">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>25</v>
@@ -5415,7 +5411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>26</v>
       </c>
@@ -5447,7 +5443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>26</v>
       </c>
@@ -5463,8 +5459,8 @@
       <c r="E158" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F158" s="11" t="n">
-        <v>2050</v>
+      <c r="F158" s="10" t="n">
+        <v>1671</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>25</v>
@@ -5479,7 +5475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
         <v>26</v>
       </c>
@@ -5495,8 +5491,8 @@
       <c r="E159" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F159" s="11" t="n">
-        <v>2050</v>
+      <c r="F159" s="10" t="n">
+        <v>1671</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>25</v>
@@ -5511,7 +5507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>26</v>
       </c>
@@ -5527,7 +5523,7 @@
       <c r="E160" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F160" s="11" t="n">
+      <c r="F160" s="10" t="n">
         <v>2001</v>
       </c>
       <c r="G160" s="4" t="s">
@@ -5542,11 +5538,11 @@
       <c r="J160" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K160" s="12" t="n">
+      <c r="K160" s="11" t="n">
         <v>3400</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>26</v>
       </c>
@@ -5562,7 +5558,7 @@
       <c r="E161" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F161" s="11" t="n">
+      <c r="F161" s="10" t="n">
         <v>2001</v>
       </c>
       <c r="G161" s="4" t="s">
@@ -5577,11 +5573,11 @@
       <c r="J161" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K161" s="12" t="n">
+      <c r="K161" s="11" t="n">
         <v>3400</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>26</v>
       </c>
@@ -5597,7 +5593,7 @@
       <c r="E162" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F162" s="11" t="n">
+      <c r="F162" s="10" t="n">
         <v>2423</v>
       </c>
       <c r="G162" s="4" t="s">
@@ -5612,11 +5608,11 @@
       <c r="J162" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K162" s="12" t="n">
+      <c r="K162" s="11" t="n">
         <v>3400</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>26</v>
       </c>
@@ -5632,7 +5628,7 @@
       <c r="E163" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F163" s="11" t="n">
+      <c r="F163" s="10" t="n">
         <v>2865</v>
       </c>
       <c r="G163" s="4" t="s">
@@ -5647,11 +5643,11 @@
       <c r="J163" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K163" s="12" t="n">
+      <c r="K163" s="11" t="n">
         <v>3400</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>26</v>
       </c>
@@ -5667,7 +5663,7 @@
       <c r="E164" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F164" s="11" t="n">
+      <c r="F164" s="10" t="n">
         <v>3540</v>
       </c>
       <c r="G164" s="4" t="s">
@@ -5682,11 +5678,11 @@
       <c r="J164" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K164" s="12" t="n">
+      <c r="K164" s="11" t="n">
         <v>3400</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
         <v>26</v>
       </c>
@@ -5702,7 +5698,7 @@
       <c r="E165" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F165" s="11" t="n">
+      <c r="F165" s="10" t="n">
         <v>4751</v>
       </c>
       <c r="G165" s="4" t="s">
@@ -5717,11 +5713,11 @@
       <c r="J165" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K165" s="12" t="n">
+      <c r="K165" s="11" t="n">
         <v>3400</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
         <v>26</v>
       </c>
@@ -5737,7 +5733,7 @@
       <c r="E166" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="F166" s="11" t="n">
+      <c r="F166" s="10" t="n">
         <v>5805</v>
       </c>
       <c r="G166" s="4" t="s">
@@ -5753,7 +5749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
         <v>26</v>
       </c>
@@ -5769,8 +5765,8 @@
       <c r="E167" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="F167" s="11" t="n">
-        <v>7595</v>
+      <c r="F167" s="10" t="n">
+        <v>7596</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>25</v>
@@ -5785,7 +5781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
         <v>26</v>
       </c>
@@ -5801,7 +5797,7 @@
       <c r="E168" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F168" s="11" t="n">
+      <c r="F168" s="10" t="n">
         <v>9256</v>
       </c>
       <c r="G168" s="4" t="s">
@@ -5817,7 +5813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
         <v>26</v>
       </c>
@@ -5833,7 +5829,7 @@
       <c r="E169" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="F169" s="13" t="n">
+      <c r="F169" s="12" t="n">
         <v>12501</v>
       </c>
       <c r="G169" s="4" t="s">
